--- a/src/计算器.xlsx
+++ b/src/计算器.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chongjiaobei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CJB\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98CA668-418E-4FFE-B7CC-93DAFBB397F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E08A0-7868-4113-A765-0818C3E57B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{6357A906-10F3-4C10-BFB5-0C504B4B7FD6}"/>
+    <workbookView xWindow="2970" yWindow="2780" windowWidth="21440" windowHeight="11170" xr2:uid="{6357A906-10F3-4C10-BFB5-0C504B4B7FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="个人得分" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>燃梦行动计算器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>分值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,8 +400,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,35 +433,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,892 +775,989 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BB3767-AB2A-4055-B29E-1A76196E3E34}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="14" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="14" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="14" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="14" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6">
         <f>C10*30+E10*20+G10*20+I10*10</f>
         <v>0</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="15" t="s">
+      <c r="N12" s="6"/>
+      <c r="O12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6">
         <f>C14*30+E14*30+G14*45+I14*45+K14*65+M14*65+O14*200</f>
         <v>0</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6">
         <f>C18*50+E18*50+G18*50+I18*100+K18*50+M18*200</f>
         <v>0</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3">
-        <f>C22*50+E22*50+G22*20+I22*10</f>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6">
+        <f>C22*50+E22*50+G22*20+I22*10+K22*50+M22</f>
         <v>0</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3">
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6">
         <f>C26*0+E26*100+G26*150+I26*350+K26*0.5</f>
         <v>0</v>
       </c>
-      <c r="R24" s="3"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3">
+      <c r="D28" s="11"/>
+      <c r="E28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6">
+        <f>E30</f>
         <v>0</v>
       </c>
-      <c r="R28" s="3"/>
+      <c r="R28" s="6"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="9">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="8">
         <f>IF(C30&gt;1,0,(Q8+Q12+Q16+Q20+Q24-Q28-C30*300)*K10/10)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="A20:B23"/>
+    <mergeCell ref="Q20:R23"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="Q24:R27"/>
+    <mergeCell ref="A28:B31"/>
+    <mergeCell ref="Q28:R31"/>
+    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="Q8:R11"/>
+    <mergeCell ref="A12:B15"/>
+    <mergeCell ref="Q12:R15"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="Q16:R19"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O22:P23"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="K14:L15"/>
     <mergeCell ref="A6:B7"/>
@@ -1679,84 +1782,6 @@
     <mergeCell ref="E26:F27"/>
     <mergeCell ref="G26:H27"/>
     <mergeCell ref="I26:J27"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="O22:P23"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="A20:B23"/>
-    <mergeCell ref="Q20:R23"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="Q24:R27"/>
-    <mergeCell ref="A28:B31"/>
-    <mergeCell ref="Q28:R31"/>
-    <mergeCell ref="A8:B11"/>
-    <mergeCell ref="Q8:R11"/>
-    <mergeCell ref="A12:B15"/>
-    <mergeCell ref="Q12:R15"/>
-    <mergeCell ref="A16:B19"/>
-    <mergeCell ref="Q16:R19"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:J29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:J31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,313 +1792,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D975759-0AC0-450F-861F-F4907F168BBF}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
         <f>D8+G8+J8+M8-P8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
